--- a/Modele plan tests acceptation.xlsx
+++ b/Modele plan tests acceptation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t xml:space="preserve">Fonctionnalité</t>
   </si>
@@ -37,61 +37,39 @@
     <t xml:space="preserve">Une page d’accueil montrant (de manière dynamique) tous les articles disponibles à la vente.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ouvrir sur la page d'accueil du site web dans un navigateur</t>
+    <t xml:space="preserve">Ouvrir la page d'accueil du site web dans un navigateur</t>
   </si>
   <si>
     <t xml:space="preserve">Affichage de l'ensemble des produits</t>
   </si>
   <si>
-    <t xml:space="preserve">OK</t>
+    <t xml:space="preserve">Tous les produits sont affichés</t>
   </si>
   <si>
     <t xml:space="preserve">Une page “produit” qui affiche (de manière dynamique) les détails du produit sur
 lequel l'utilisateur a cliqué depuis la page d’accueil.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ouvrir sur la page produit du site web dans un navigateur</t>
+    <t xml:space="preserve">Ouvrir la page produit du site web dans un navigateur</t>
   </si>
   <si>
     <t xml:space="preserve">Affichage du produit sélectionner et de ses détails</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Depuis la page </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">“produit”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, l’utilisateur
+    <t xml:space="preserve">Le produit s’affiche correctement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depuis la page “produit”, l’utilisateur
 peut sélectionner une quantité.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Changer la valeur de quantité</t>
   </si>
   <si>
-    <t xml:space="preserve">La valeur de quantité se met à jour</t>
+    <t xml:space="preserve">1 - La valeur de quantité se met à jour          2 – Si la valeur entrée est supérieure à 100, la valeur de quantité affiche 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 – La valeur se met à jour                       2 – La valeur affiche 100</t>
   </si>
   <si>
     <t xml:space="preserve">Depuis la page “produit”, l’utilisateur
@@ -104,41 +82,32 @@
     <t xml:space="preserve">La valeur de couleur se met à jour</t>
   </si>
   <si>
+    <t xml:space="preserve">La valeur se met à jour</t>
+  </si>
+  <si>
     <t xml:space="preserve">Depuis la page “produit”, l’utilisateur
 peut ajouter l’article au panier.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Appuyer sur le bouton </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">“Ajouter au panier”</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">L’article est ajouté au panier</t>
+    <t xml:space="preserve">Appuyer sur le bouton “Ajouter au panier”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - L’article est ajouté au panier                       2 – Si la quantité est 0 et qu’aucune couleur n’est sélectionnée                                           3 – Si aucune couleur n’est sélectionnée       4 – Si la quantité est de 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 – propose une redirection vers la page panier, et ajoute l’article au panier                                                                              2, 3, 4 -  une modale d’erreur s’ouvre, indiquant ce qui ne va pas</t>
   </si>
   <si>
     <t xml:space="preserve">Une page panier montrant (de manière dynamique) tous les articles ajoutés au panier.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ouvrir sur la page panier du site web dans un navigateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage de l’ensemble des articles ajoutés au panier ainsi que les informations associées.</t>
+    <t xml:space="preserve">Ouvrir la page panier du site web dans un navigateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Affichage de l’ensemble des articles ajoutés au panier ainsi que les informations associées.                                                          2 – Affiche « Panier vide » si tel est le cas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 – les articles du panier s’affiche avec les bonnes informations                           2 - « panier vide » est affiché </t>
   </si>
   <si>
     <t xml:space="preserve">Depuis la page panier (de manière dynamique) le total des articles s’affiche.</t>
@@ -151,7 +120,10 @@
 peut modifier la quantité d’un article.</t>
   </si>
   <si>
-    <t xml:space="preserve">La valeur de quantité et le total du panier se mettent à jour</t>
+    <t xml:space="preserve">1 - La valeur de quantité et le total se mettent à jour                                                  2 – Si la valeur entrée est supérieure à 100, la valeur de quantité affiche 100 et le total se met à jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 – La valeur et le total se mettent à jour                                                                    2 – La valeur affiche 100 et le total se met à jour</t>
   </si>
   <si>
     <t xml:space="preserve">Depuis la page panier, l’utilisateur
@@ -161,7 +133,10 @@
     <t xml:space="preserve">Appuyer sur le bouton “Supprimer”</t>
   </si>
   <si>
-    <t xml:space="preserve">L’article est supprimer du panier et le total du panier se met à jour</t>
+    <t xml:space="preserve">Une modale de confirmation s’ouvre, si confirmation, l’article est supprimé du panier et le total du panier se met à jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La modale de confirmation s’ouvre, une fois confirmer, supprime l’article et me le total du panier à jour</t>
   </si>
   <si>
     <t xml:space="preserve">Depuis la page panier, l’utilisateur
@@ -181,7 +156,10 @@
     <t xml:space="preserve">Appuyer sur le bouton “Commander”</t>
   </si>
   <si>
-    <t xml:space="preserve">Après vérification du formulaire, Les données relatives à la commande sont envoyées au back-end et une page de confirmation s’ouvre</t>
+    <t xml:space="preserve">1 - Après vérification du formulaire, Les données relatives à la commande sont envoyées au back-end et une page de confirmation s’ouvre                                        2 – Si le formulaire est vide ou qu’un ou plusieurs champs ne sont pas validés, un message d’erreur apparaît et le formulaire n’ est pas envoyé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Le formulaire est envoyé au back-end et la page confirmation s’ouvre                2 – Un message d’erreur apparaît et le formulaire n’est pas envoyé au back-end</t>
   </si>
   <si>
     <t xml:space="preserve">Une page confirmation montrant le numéro de commande.</t>
@@ -191,6 +169,9 @@
   </si>
   <si>
     <t xml:space="preserve">Affichage du numéro de la commande envoyé par l’API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le numéro de la commande est affiché dans la page confirmation</t>
   </si>
 </sst>
 </file>
@@ -464,7 +445,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -480,18 +461,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -591,14 +572,14 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="58.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="57.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="58.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="57.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="52.71"/>
   </cols>
   <sheetData>
@@ -648,177 +629,177 @@
         <v>10</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>14</v>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="105.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>17</v>
+      <c r="B6" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="83.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>21</v>
+      <c r="B8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>25</v>
+      <c r="B9" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>27</v>
+      <c r="B10" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>30</v>
+      <c r="B11" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>33</v>
+      <c r="B12" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>36</v>
+      <c r="B13" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,7 +820,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="8" scale="70" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Modele plan tests acceptation.xlsx
+++ b/Modele plan tests acceptation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t xml:space="preserve">Fonctionnalité</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Affichage de l'ensemble des produits</t>
   </si>
   <si>
-    <t xml:space="preserve">Tous les produits sont affichés</t>
+    <t xml:space="preserve">OK</t>
   </si>
   <si>
     <t xml:space="preserve">Une page “produit” qui affiche (de manière dynamique) les détails du produit sur
@@ -56,9 +56,6 @@
     <t xml:space="preserve">Affichage du produit sélectionner et de ses détails</t>
   </si>
   <si>
-    <t xml:space="preserve">Le produit s’affiche correctement</t>
-  </si>
-  <si>
     <t xml:space="preserve">Depuis la page “produit”, l’utilisateur
 peut sélectionner une quantité.</t>
   </si>
@@ -66,10 +63,28 @@
     <t xml:space="preserve">Changer la valeur de quantité</t>
   </si>
   <si>
-    <t xml:space="preserve">1 - La valeur de quantité se met à jour          2 – Si la valeur entrée est supérieure à 100, la valeur de quantité affiche 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 – La valeur se met à jour                       2 – La valeur affiche 100</t>
+    <t xml:space="preserve">La valeur de quantité se met à jour         </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 – La valeur se met à jour                       2 – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Si la valeur entrée est supérieure à 100, la valeur de quantité affiche 100</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Depuis la page “produit”, l’utilisateur
@@ -82,9 +97,6 @@
     <t xml:space="preserve">La valeur de couleur se met à jour</t>
   </si>
   <si>
-    <t xml:space="preserve">La valeur se met à jour</t>
-  </si>
-  <si>
     <t xml:space="preserve">Depuis la page “produit”, l’utilisateur
 peut ajouter l’article au panier.</t>
   </si>
@@ -92,10 +104,28 @@
     <t xml:space="preserve">Appuyer sur le bouton “Ajouter au panier”</t>
   </si>
   <si>
-    <t xml:space="preserve">1 - L’article est ajouté au panier                       2 – Si la quantité est 0 et qu’aucune couleur n’est sélectionnée                                           3 – Si aucune couleur n’est sélectionnée       4 – Si la quantité est de 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 – propose une redirection vers la page panier, et ajoute l’article au panier                                                                              2, 3, 4 -  une modale d’erreur s’ouvre, indiquant ce qui ne va pas</t>
+    <t xml:space="preserve">L’article s ‘ajoute au panier                       </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 – propose une redirection vers la page panier, et ajoute l’article au panier         2 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Si la quantité est 0 et qu’aucune couleur n’est sélectionnée                       3 – Si aucune couleur n’est sélectionnée  4 – Si la quantité est de 0</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Une page panier montrant (de manière dynamique) tous les articles ajoutés au panier.</t>
@@ -104,10 +134,28 @@
     <t xml:space="preserve">Ouvrir la page panier du site web dans un navigateur</t>
   </si>
   <si>
-    <t xml:space="preserve">1 - Affichage de l’ensemble des articles ajoutés au panier ainsi que les informations associées.                                                          2 – Affiche « Panier vide » si tel est le cas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 – les articles du panier s’affiche avec les bonnes informations                           2 - « panier vide » est affiché </t>
+    <t xml:space="preserve">Affichage de l’ensemble des articles ajoutés au panier ainsi que les informations associées.                                                          </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 – les articles du panier s’affiche avec les bonnes informations                           2 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Affiche « Panier vide » si tel est le cas.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Depuis la page panier (de manière dynamique) le total des articles s’affiche.</t>
@@ -120,10 +168,28 @@
 peut modifier la quantité d’un article.</t>
   </si>
   <si>
-    <t xml:space="preserve">1 - La valeur de quantité et le total se mettent à jour                                                  2 – Si la valeur entrée est supérieure à 100, la valeur de quantité affiche 100 et le total se met à jour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 – La valeur et le total se mettent à jour                                                                    2 – La valeur affiche 100 et le total se met à jour</t>
+    <t xml:space="preserve">La valeur de quantité et le total se mettent à jour                                                 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 – La valeur et le total se mettent à jour                                                                  2 – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Si la valeur entrée est supérieure à 100, la valeur de quantité affiche 100 et le total se met à jour</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Depuis la page panier, l’utilisateur
@@ -136,9 +202,6 @@
     <t xml:space="preserve">Une modale de confirmation s’ouvre, si confirmation, l’article est supprimé du panier et le total du panier se met à jour</t>
   </si>
   <si>
-    <t xml:space="preserve">La modale de confirmation s’ouvre, une fois confirmer, supprime l’article et me le total du panier à jour</t>
-  </si>
-  <si>
     <t xml:space="preserve">Depuis la page panier, l’utilisateur
 peut remplir le formulaire.</t>
   </si>
@@ -156,10 +219,28 @@
     <t xml:space="preserve">Appuyer sur le bouton “Commander”</t>
   </si>
   <si>
-    <t xml:space="preserve">1 - Après vérification du formulaire, Les données relatives à la commande sont envoyées au back-end et une page de confirmation s’ouvre                                        2 – Si le formulaire est vide ou qu’un ou plusieurs champs ne sont pas validés, un message d’erreur apparaît et le formulaire n’ est pas envoyé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Le formulaire est envoyé au back-end et la page confirmation s’ouvre                2 – Un message d’erreur apparaît et le formulaire n’est pas envoyé au back-end</t>
+    <t xml:space="preserve">Après vérification du formulaire, Les données relatives à la commande sont envoyées au back-end et une page de confirmation s’ouvre                                       </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 - Le formulaire est envoyé au back-end et la page confirmation s’ouvre                2 – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Si le formulaire est vide ou qu’un ou plusieurs champs ne sont pas validés, un message d’erreur apparaît et le formulaire n’ est pas envoyé</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Une page confirmation montrant le numéro de commande.</t>
@@ -169,9 +250,6 @@
   </si>
   <si>
     <t xml:space="preserve">Affichage du numéro de la commande envoyé par l’API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le numéro de la commande est affiché dans la page confirmation</t>
   </si>
 </sst>
 </file>
@@ -399,7 +477,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -465,14 +543,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -571,11 +641,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="58.41"/>
@@ -629,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -637,16 +707,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -654,33 +724,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="105.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="126.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="83.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -688,16 +758,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -705,16 +775,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -722,16 +792,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -739,16 +809,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -756,33 +826,33 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="114.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -790,24 +860,24 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Modele plan tests acceptation.xlsx
+++ b/Modele plan tests acceptation.xlsx
@@ -66,6 +66,29 @@
     <t xml:space="preserve">La valeur de quantité se met à jour         </t>
   </si>
   <si>
+    <t xml:space="preserve">1 – La valeur se met à jour                       2 – Si la valeur entrée est supérieure à 100, la valeur de quantité affiche 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depuis la page “produit”, l’utilisateur
+peut sélectionner une couleur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer la valeur de couleur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La valeur de couleur se met à jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depuis la page “produit”, l’utilisateur
+peut ajouter l’article au panier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appuyer sur le bouton “Ajouter au panier”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’article s ‘ajoute au panier                       </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -74,7 +97,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 – La valeur se met à jour                       2 – </t>
+      <t xml:space="preserve">1 – propose une redirection vers la page panier, et ajoute l’article au panier         2 - Si la quantité est 0 et qu’aucune couleur n’est sélectionnée, un message d’erreur apparaît                                    3 – Si aucune couleur n’est sélectionnée, </t>
     </r>
     <r>
       <rPr>
@@ -83,30 +106,8 @@
         <rFont val="Montserrat"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">Si la valeur entrée est supérieure à 100, la valeur de quantité affiche 100</t>
+      <t xml:space="preserve">un message d’erreur apparaît </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Depuis la page “produit”, l’utilisateur
-peut sélectionner une couleur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changer la valeur de couleur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La valeur de couleur se met à jour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depuis la page “produit”, l’utilisateur
-peut ajouter l’article au panier.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appuyer sur le bouton “Ajouter au panier”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’article s ‘ajoute au panier                       </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -115,7 +116,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 – propose une redirection vers la page panier, et ajoute l’article au panier         2 - </t>
+      <t xml:space="preserve">                4 – Si la quantité est de 0, </t>
     </r>
     <r>
       <rPr>
@@ -124,7 +125,7 @@
         <rFont val="Montserrat"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">Si la quantité est 0 et qu’aucune couleur n’est sélectionnée                       3 – Si aucune couleur n’est sélectionnée  4 – Si la quantité est de 0</t>
+      <t xml:space="preserve">un message d’erreur apparaît</t>
     </r>
   </si>
   <si>
@@ -137,25 +138,7 @@
     <t xml:space="preserve">Affichage de l’ensemble des articles ajoutés au panier ainsi que les informations associées.                                                          </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 – les articles du panier s’affiche avec les bonnes informations                           2 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Affiche « Panier vide » si tel est le cas.</t>
-    </r>
+    <t xml:space="preserve">1 – les articles du panier s’affiche avec les bonnes informations                           2 - Affiche « Panier vide » si tel est le cas.</t>
   </si>
   <si>
     <t xml:space="preserve">Depuis la page panier (de manière dynamique) le total des articles s’affiche.</t>
@@ -171,25 +154,7 @@
     <t xml:space="preserve">La valeur de quantité et le total se mettent à jour                                                 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 – La valeur et le total se mettent à jour                                                                  2 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Si la valeur entrée est supérieure à 100, la valeur de quantité affiche 100 et le total se met à jour</t>
-    </r>
+    <t xml:space="preserve">1 – La valeur et le total se mettent à jour                                                                  2 – Si la valeur entrée est supérieure à 100, la valeur de quantité affiche 100 et le total se met à jour</t>
   </si>
   <si>
     <t xml:space="preserve">Depuis la page panier, l’utilisateur
@@ -222,25 +187,7 @@
     <t xml:space="preserve">Après vérification du formulaire, Les données relatives à la commande sont envoyées au back-end et une page de confirmation s’ouvre                                       </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 - Le formulaire est envoyé au back-end et la page confirmation s’ouvre                2 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Montserrat"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Si le formulaire est vide ou qu’un ou plusieurs champs ne sont pas validés, un message d’erreur apparaît et le formulaire n’ est pas envoyé</t>
-    </r>
+    <t xml:space="preserve">1 - Le formulaire est envoyé au back-end et la page confirmation s’ouvre                2 – Si le formulaire est vide ou qu’un ou plusieurs champs ne sont pas validés, un message d’erreur apparaît et le formulaire n’ est pas envoyé</t>
   </si>
   <si>
     <t xml:space="preserve">Une page confirmation montrant le numéro de commande.</t>
@@ -645,7 +592,7 @@
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="58.41"/>
@@ -736,7 +683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="126.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="158.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
